--- a/src/test/resources/com/sirion/xls/WOR Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/WOR Suite.xlsx
@@ -8,17 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
-    <sheet name="ActionCreation" sheetId="3" r:id="rId2"/>
-    <sheet name="IssueCreation" sheetId="4" r:id="rId3"/>
-    <sheet name="ChangeRequestCreation" sheetId="5" r:id="rId4"/>
-    <sheet name="InterpretationCreation" sheetId="6" r:id="rId5"/>
+    <sheet name="WORCreation" sheetId="7" r:id="rId2"/>
+    <sheet name="WORUpdate" sheetId="8" r:id="rId3"/>
+    <sheet name="ActionCreation" sheetId="3" r:id="rId4"/>
+    <sheet name="IssueCreation" sheetId="4" r:id="rId5"/>
+    <sheet name="ChangeRequestCreation" sheetId="5" r:id="rId6"/>
+    <sheet name="InterpretationCreation" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="196">
   <si>
     <t>TCID</t>
   </si>
@@ -474,6 +476,138 @@
   </si>
   <si>
     <t>FAIL</t>
+  </si>
+  <si>
+    <t>WORCreation</t>
+  </si>
+  <si>
+    <t>WORCreation description</t>
+  </si>
+  <si>
+    <t>worSupplier</t>
+  </si>
+  <si>
+    <t>worSourceType</t>
+  </si>
+  <si>
+    <t>worsourceName</t>
+  </si>
+  <si>
+    <t>worName</t>
+  </si>
+  <si>
+    <t>worTitle</t>
+  </si>
+  <si>
+    <t>worBrief</t>
+  </si>
+  <si>
+    <t>worPriority</t>
+  </si>
+  <si>
+    <t>worType</t>
+  </si>
+  <si>
+    <t>worBillingType</t>
+  </si>
+  <si>
+    <t>worCurrency</t>
+  </si>
+  <si>
+    <t>worContractingEntity</t>
+  </si>
+  <si>
+    <t>worDeliveryCountries</t>
+  </si>
+  <si>
+    <t>worTimezone</t>
+  </si>
+  <si>
+    <t>worSupplierAccess</t>
+  </si>
+  <si>
+    <t>worTier</t>
+  </si>
+  <si>
+    <t>worEffectiveDateDate</t>
+  </si>
+  <si>
+    <t>worEffectiveDateMonth</t>
+  </si>
+  <si>
+    <t>worEffectiveDateYear</t>
+  </si>
+  <si>
+    <t>worExpirationDateDate</t>
+  </si>
+  <si>
+    <t>worExpirationDateMonth</t>
+  </si>
+  <si>
+    <t>worExpirationDateYear</t>
+  </si>
+  <si>
+    <t>worAdditionalTCV</t>
+  </si>
+  <si>
+    <t>worAdditionalACV</t>
+  </si>
+  <si>
+    <t>worAdditionalFACV</t>
+  </si>
+  <si>
+    <t>ABC News</t>
+  </si>
+  <si>
+    <t>MSA</t>
+  </si>
+  <si>
+    <t>Master Service Agreement - ABC</t>
+  </si>
+  <si>
+    <t>Building Maintenance WOR</t>
+  </si>
+  <si>
+    <t>Maintenance department</t>
+  </si>
+  <si>
+    <t>Bloomberg</t>
+  </si>
+  <si>
+    <t>The HCCS-Maintenance Department receives and process request work orders daily. Our overall goals are to schedule and complete these services in a timely manner.  In order to perfect our goals, each Campus must complete a work order form and return to the Maintenance office. Thank you in advance for your cooperation.</t>
+  </si>
+  <si>
+    <t>Major Enhancement</t>
+  </si>
+  <si>
+    <t>Milestone Based - With holdback</t>
+  </si>
+  <si>
+    <t>WORUpdate</t>
+  </si>
+  <si>
+    <t>WORUpdate description</t>
+  </si>
+  <si>
+    <t>Building Maintenance WOR edited</t>
+  </si>
+  <si>
+    <t>Maintenance department edited</t>
+  </si>
+  <si>
+    <t>The HCCS-Maintenance Department receives and process request work orders daily. Our overall goals are to schedule and complete these services in a timely manner.  In order to perfect our goals, each Campus must complete a work order form and return to the Maintenance office. Thank you in advance for your cooperation.Edited</t>
+  </si>
+  <si>
+    <t>Minor Enhancement</t>
+  </si>
+  <si>
+    <t>Consumption Based Fees</t>
+  </si>
+  <si>
+    <t>Asia/Dhaka (GMT +06:00)</t>
+  </si>
+  <si>
+    <t>Medium</t>
   </si>
 </sst>
 </file>
@@ -481,7 +615,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,6 +626,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -582,7 +722,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -594,6 +734,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -898,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,42 +1069,40 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="C4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
@@ -971,12 +1111,10 @@
       <c r="B5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>151</v>
-      </c>
+      <c r="C5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
@@ -985,12 +1123,10 @@
       <c r="B6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="C6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -999,12 +1135,10 @@
       <c r="B7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="C7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
@@ -1013,11 +1147,39 @@
       <c r="B8" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>151</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1027,10 +1189,391 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="255.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="7.85546875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>1</v>
+      </c>
+      <c r="R2" s="11">
+        <v>2017</v>
+      </c>
+      <c r="S2" s="11">
+        <v>2</v>
+      </c>
+      <c r="T2" s="11">
+        <v>4</v>
+      </c>
+      <c r="U2" s="11">
+        <v>2017</v>
+      </c>
+      <c r="V2" s="11">
+        <v>10</v>
+      </c>
+      <c r="W2" s="11">
+        <v>20</v>
+      </c>
+      <c r="X2" s="11">
+        <v>30</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA2" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X2"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="255.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="7.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11">
+        <v>27</v>
+      </c>
+      <c r="N2" s="11">
+        <v>1</v>
+      </c>
+      <c r="O2" s="11">
+        <v>2016</v>
+      </c>
+      <c r="P2" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>5</v>
+      </c>
+      <c r="R2" s="11">
+        <v>2017</v>
+      </c>
+      <c r="S2" s="11">
+        <v>20</v>
+      </c>
+      <c r="T2" s="11">
+        <v>30</v>
+      </c>
+      <c r="U2" s="11">
+        <v>40</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="X2" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AD2" sqref="A2:AD2"/>
+      <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,7 +1591,7 @@
     <col min="12" max="12" customWidth="true" width="9.85546875" collapsed="true"/>
     <col min="13" max="15" customWidth="true" width="19.140625" collapsed="true"/>
     <col min="16" max="27" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
@@ -1212,7 +1755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF2"/>
   <sheetViews>
@@ -1244,7 +1787,7 @@
     <col min="20" max="20" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
     <col min="21" max="21" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
     <col min="22" max="29" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
@@ -1422,7 +1965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG2"/>
   <sheetViews>
@@ -1451,7 +1994,7 @@
     <col min="24" max="24" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
     <col min="25" max="30" customWidth="true" width="18.42578125" collapsed="true"/>
     <col min="31" max="31" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
     <col min="33" max="33" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
@@ -1642,7 +2185,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z2"/>
   <sheetViews>
@@ -1671,7 +2214,7 @@
     <col min="17" max="17" bestFit="true" customWidth="true" width="28.7109375" collapsed="true"/>
     <col min="18" max="23" customWidth="true" width="28.7109375" collapsed="true"/>
     <col min="24" max="24" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>

--- a/src/test/resources/com/sirion/xls/WOR Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/WOR Suite.xlsx
@@ -1176,11 +1176,9 @@
         <v>188</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1419,7 +1417,7 @@
     <col min="20" max="20" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
     <col min="21" max="21" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
     <col min="24" max="24" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>

--- a/src/test/resources/com/sirion/xls/WOR Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/WOR Suite.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="196">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/com/sirion/xls/WOR Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/WOR Suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="45">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/com/sirion/xls/WOR Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/WOR Suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>TCID</t>
   </si>
@@ -137,19 +137,19 @@
     <t>Milestone Based - With holdback</t>
   </si>
   <si>
-    <t>Master Service Agreement - ABC News</t>
-  </si>
-  <si>
     <t>Staff Augmentation</t>
   </si>
   <si>
+    <t>HSBC</t>
+  </si>
+  <si>
+    <t>Master Service Agreement - HSBC</t>
+  </si>
+  <si>
     <t>SKIP</t>
   </si>
   <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -591,7 +591,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E3" s="7"/>
     </row>
@@ -606,7 +606,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4" s="7"/>
     </row>
@@ -765,19 +765,19 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>36</v>
@@ -792,7 +792,7 @@
         <v>7</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>39</v>
@@ -838,7 +838,7 @@
         <v>4</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA3" s="3"/>
     </row>
